--- a/front-end/JUDICIAL.xlsx
+++ b/front-end/JUDICIAL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\AppsTesis\v5\git\app\front-end\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\AppsTesis\v5\app\front-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -624,7 +624,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
